--- a/progress-tracker-table.xlsx
+++ b/progress-tracker-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelmaclennan/Documents/Learning &amp; Education/2025-04 AI &amp; ML/jigsaw-competition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1555E8-25AB-C84D-8DC9-EE67264FCE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F471EB-E196-EB4B-9214-901D9A789DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="5080" windowWidth="28040" windowHeight="17440" xr2:uid="{9D2F94EE-788C-9542-A49A-1C742A203CD2}"/>
   </bookViews>
@@ -16,6 +16,19 @@
     <sheet name="progress-tracker-table" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -981,7 +994,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/progress-tracker-table.xlsx
+++ b/progress-tracker-table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelmaclennan/Documents/Learning &amp; Education/2025-04 AI &amp; ML/jigsaw-competition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F471EB-E196-EB4B-9214-901D9A789DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB0D315-9EF2-4A4E-B4D7-8238D6DD2417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="5080" windowWidth="28040" windowHeight="17440" xr2:uid="{9D2F94EE-788C-9542-A49A-1C742A203CD2}"/>
+    <workbookView xWindow="3200" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{9D2F94EE-788C-9542-A49A-1C742A203CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="progress-tracker-table" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Model</t>
   </si>
@@ -90,6 +90,36 @@
   </si>
   <si>
     <t>0.7755, threshold=0.320</t>
+  </si>
+  <si>
+    <t>05_ensemble.ipynb</t>
+  </si>
+  <si>
+    <t>0.7391, threshold=0.438</t>
+  </si>
+  <si>
+    <t>logreg_tfidf_feats + xgb_tfidf_feats (ensemble)</t>
+  </si>
+  <si>
+    <t>No improvement</t>
+  </si>
+  <si>
+    <t>Planning to add diverse third model, retrain stacker, recalibrate threshold</t>
+  </si>
+  <si>
+    <t>08_calibration</t>
+  </si>
+  <si>
+    <t>TF-IDF + LR (Platt-calibrated)</t>
+  </si>
+  <si>
+    <t>0.765, threshold=0.5595</t>
+  </si>
+  <si>
+    <t>n/a (no submission)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1024,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1033,7 @@
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1095,13 +1125,47 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="6">
+        <v>45924</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="6">
+        <v>45926</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
